--- a/Actas de Reunión/Sprint - 01/4. BurndownChart - Sprint 01.xlsx
+++ b/Actas de Reunión/Sprint - 01/4. BurndownChart - Sprint 01.xlsx
@@ -167,15 +167,6 @@
     <t>Juan Camilo Nieto</t>
   </si>
   <si>
-    <t>Diana Milena Ramirez</t>
-  </si>
-  <si>
-    <t>Yuli Arias</t>
-  </si>
-  <si>
-    <t>Julian Andres</t>
-  </si>
-  <si>
     <t>1. Capacitación uso de Zenhub</t>
   </si>
   <si>
@@ -183,6 +174,15 @@
   </si>
   <si>
     <t>3. Planeación Sprint I</t>
+  </si>
+  <si>
+    <t>Diana Milena Restrepo</t>
+  </si>
+  <si>
+    <t>Yuli Tatiana Cañon</t>
+  </si>
+  <si>
+    <t>Julian Andres Vargas</t>
   </si>
 </sst>
 </file>
@@ -504,243 +504,6 @@
   <dxfs count="47">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -919,6 +682,29 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -928,6 +714,29 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -943,14 +752,32 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -965,14 +792,32 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -987,6 +832,35 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -998,11 +872,137 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
@@ -1555,8 +1555,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="346204296"/>
-        <c:axId val="346207040"/>
+        <c:axId val="391126720"/>
+        <c:axId val="391127104"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1851,11 +1851,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="346204296"/>
-        <c:axId val="346207040"/>
+        <c:axId val="391126720"/>
+        <c:axId val="391127104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="346204296"/>
+        <c:axId val="391126720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,7 +1957,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346207040"/>
+        <c:crossAx val="391127104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1966,7 +1966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="346207040"/>
+        <c:axId val="391127104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2070,7 +2070,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346204296"/>
+        <c:crossAx val="391126720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2730,7 +2730,7 @@
         <xdr:cNvPr id="15" name="Diagramm 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54B1C02F-1D39-F847-9FB0-BD434C64481F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B1C02F-1D39-F847-9FB0-BD434C64481F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2794,17 +2794,17 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="ID de sprint" totalsRowLabel="Puntos historia " dataDxfId="29" totalsRowDxfId="8"/>
-    <tableColumn id="2" name="ID de tarea del backlog" dataDxfId="28" totalsRowDxfId="7"/>
-    <tableColumn id="3" name="Puntos historia" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="6"/>
-    <tableColumn id="4" name="Historia" dataDxfId="26" totalsRowDxfId="5"/>
-    <tableColumn id="5" name="Asignado a" dataDxfId="25" totalsRowDxfId="4"/>
-    <tableColumn id="7" name="Estado" dataDxfId="24" totalsRowDxfId="3"/>
-    <tableColumn id="6" name="Completado en" dataDxfId="23" totalsRowDxfId="2"/>
-    <tableColumn id="8" name="Día de sprint " dataDxfId="22" totalsRowDxfId="1">
+    <tableColumn id="1" name="ID de sprint" totalsRowLabel="Puntos historia " dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="2" name="ID de tarea del backlog" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="3" name="Puntos historia" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="4" name="Historia" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="5" name="Asignado a" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="7" name="Estado" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="6" name="Completado en" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="8" name="Día de sprint " dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Backlog[[#This Row],[Completado en]]),"",Backlog[[#This Row],[Completado en]]-$C$1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Columna auxiliar" dataDxfId="21" totalsRowDxfId="0">
+    <tableColumn id="9" name="Columna auxiliar" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>IF(ISBLANK(Backlog[[#This Row],[Completado en]]),"n","y")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2813,19 +2813,19 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A3:E15" totalsRowCount="1" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A3:E15" totalsRowCount="1" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A3:E14"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Día de sprint " totalsRowLabel="Resultado " dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="2" name="Línea ideal" dataDxfId="16" totalsRowDxfId="15">
+    <tableColumn id="1" name="Día de sprint " totalsRowLabel="Resultado " dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" name="Línea ideal" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>Backlog[[#Totals],[Puntos historia]]-(Backlog[[#Totals],[Puntos historia]]/Überblick!$E$6*Tabelle2[[#This Row],[Día de sprint ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Desarrollo real" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="3" name="Puntos historia finalizados" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="4" name="Desarrollo real" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="3" name="Puntos historia finalizados" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(Tabelle2[[#This Row],[Aktuell]]="y",SUMIF(Backlog[[Día de sprint ]],Tabelle2[[#This Row],[Día de sprint ]],Backlog[Puntos historia]),#N/A)</calculatedColumnFormula>
       <totalsRowFormula>SUMIFS(Tabelle2[Puntos historia finalizados],Tabelle2[Puntos historia finalizados],"&lt;&gt;#NV")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Aktuell" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="9">
+    <tableColumn id="5" name="Aktuell" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>IF(NOW()&gt;=Backlog!$C$1+Tabelle2[[#This Row],[Día de sprint ]],"y","n")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3133,7 +3133,7 @@
   <dimension ref="A1:AT58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3579,7 +3579,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
@@ -4329,7 +4329,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -4358,7 +4358,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
@@ -4387,7 +4387,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
